--- a/General/Case1.xlsx
+++ b/General/Case1.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ziaochen/Desktop/CS8/BC3406/General/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="14355" windowHeight="8250"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="5" r:id="rId1"/>
     <sheet name="Nils Baker data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="9">
   <si>
     <t>Total Households in Area</t>
   </si>
@@ -36,9 +49,6 @@
   </si>
   <si>
     <t>This spreadsheet supports STUDENT analysis of the case “Nils Baker” (UVA-QA-0793).</t>
-  </si>
-  <si>
-    <t>Data source: Company documents.</t>
   </si>
   <si>
     <r>
@@ -205,29 +215,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -281,13 +291,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,12 +416,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -441,12 +451,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -650,47 +660,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="7" customWidth="1"/>
     <col min="2" max="2" width="88" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="7"/>
+    <col min="3" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="21"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="20"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
     </row>
   </sheetData>
@@ -707,20 +717,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="18.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="14" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -734,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -748,7 +758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -762,7 +772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -776,7 +786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -790,7 +800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -804,7 +814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -818,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -832,7 +842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -846,7 +856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -860,7 +870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -874,7 +884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -888,7 +898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -902,7 +912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -916,7 +926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -930,7 +940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -944,7 +954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -958,7 +968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -972,7 +982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -986,7 +996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1000,7 +1010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1014,7 +1024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1028,7 +1038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1042,7 +1052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1056,7 +1066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1070,7 +1080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1084,7 +1094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1098,7 +1108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1112,7 +1122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1126,7 +1136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1140,7 +1150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1154,7 +1164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1168,7 +1178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1182,7 +1192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1196,7 +1206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1210,7 +1220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1224,7 +1234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1238,7 +1248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1252,7 +1262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1266,7 +1276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1280,7 +1290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1294,7 +1304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1308,7 +1318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1322,7 +1332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1336,7 +1346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1350,7 +1360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1364,7 +1374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1378,7 +1388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1392,7 +1402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1406,7 +1416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1420,7 +1430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1434,7 +1444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1448,7 +1458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1462,7 +1472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1476,7 +1486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1490,7 +1500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1504,7 +1514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1518,7 +1528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1532,7 +1542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1546,7 +1556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1560,7 +1570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1574,7 +1584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1588,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1602,7 +1612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1616,7 +1626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1630,7 +1640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1644,7 +1654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -1658,7 +1668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -1672,7 +1682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -1686,7 +1696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -1700,7 +1710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -1714,7 +1724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -1728,7 +1738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -1742,7 +1752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -1756,7 +1766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -1770,7 +1780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -1784,7 +1794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -1798,7 +1808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -1812,7 +1822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -1826,7 +1836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -1840,7 +1850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -1854,7 +1864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -1868,7 +1878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -1882,7 +1892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -1896,7 +1906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -1910,7 +1920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -1924,7 +1934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -1938,7 +1948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -1952,7 +1962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -1966,7 +1976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -1980,7 +1990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -1994,7 +2004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2008,7 +2018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2022,7 +2032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2036,7 +2046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2050,7 +2060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2064,7 +2074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2078,7 +2088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2092,7 +2102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2106,7 +2116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -2120,7 +2130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -2134,7 +2144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -2148,7 +2158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -2162,7 +2172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -2176,7 +2186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -2190,7 +2200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -2204,7 +2214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -2218,7 +2228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -2232,7 +2242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -2246,7 +2256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -2260,7 +2270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -2274,7 +2284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -2288,7 +2298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -2302,7 +2312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -2316,7 +2326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -2330,7 +2340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -2344,7 +2354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -2358,7 +2368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -2372,7 +2382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -2386,7 +2396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -2400,7 +2410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -2414,10 +2424,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="17" t="s">
-        <v>7</v>
-      </c>
+    <row r="123" spans="1:4" s="18" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A123" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2748,13 +2756,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F214934E-62CD-4573-99F1-B372BF9A9F72}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F214934E-62CD-4573-99F1-B372BF9A9F72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="82207545-987c-4df2-827d-742bde27eac5"/>
+    <ds:schemaRef ds:uri="ec868678-deb6-48cf-896b-119bf5e2249b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FCC6AD0-55E0-42AC-96F6-435613F4732C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FCC6AD0-55E0-42AC-96F6-435613F4732C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D269CE49-0228-492E-96A8-BFCC1B0B763F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D269CE49-0228-492E-96A8-BFCC1B0B763F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ec868678-deb6-48cf-896b-119bf5e2249b"/>
+    <ds:schemaRef ds:uri="82207545-987c-4df2-827d-742bde27eac5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>